--- a/team_specific_matrix/Virginia Tech_B.xlsx
+++ b/team_specific_matrix/Virginia Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.171875</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C2">
-        <v>0.59375</v>
+        <v>0.583710407239819</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.015625</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.15625</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.07239819004524888</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05833333333333333</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.025</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7333333333333333</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1833333333333333</v>
+        <v>0.1703703703703704</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5641025641025641</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.358974358974359</v>
+        <v>0.3720930232558139</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04945054945054945</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01648351648351648</v>
+        <v>0.01463414634146342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1263736263736264</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1923076923076923</v>
+        <v>0.2</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02197802197802198</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1703296703296703</v>
+        <v>0.1658536585365854</v>
       </c>
       <c r="R6">
-        <v>0.07142857142857142</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="S6">
-        <v>0.3516483516483517</v>
+        <v>0.3512195121951219</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0125</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="E7">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="F7">
-        <v>0.075</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.10625</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.06875000000000001</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.18125</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="R7">
-        <v>0.0625</v>
+        <v>0.05670103092783505</v>
       </c>
       <c r="S7">
-        <v>0.3875</v>
+        <v>0.4072164948453608</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07766990291262135</v>
+        <v>0.07631578947368421</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0226537216828479</v>
+        <v>0.01842105263157895</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05501618122977346</v>
+        <v>0.05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1423948220064725</v>
+        <v>0.1289473684210526</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0226537216828479</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1877022653721683</v>
+        <v>0.1815789473684211</v>
       </c>
       <c r="R8">
-        <v>0.1003236245954693</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.3915857605177994</v>
+        <v>0.4210526315789473</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01764705882352941</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09411764705882353</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08823529411764706</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03529411764705882</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1294117647058824</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="S9">
-        <v>0.4470588235294118</v>
+        <v>0.4653465346534654</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1059371362048894</v>
+        <v>0.1048951048951049</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02793946449359721</v>
+        <v>0.02497502497502498</v>
       </c>
       <c r="E10">
-        <v>0.001164144353899884</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="F10">
-        <v>0.07450523864959255</v>
+        <v>0.07292707292707293</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1350407450523865</v>
+        <v>0.1358641358641359</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02211874272409779</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.239813736903376</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R10">
-        <v>0.06519208381839348</v>
+        <v>0.06693306693306693</v>
       </c>
       <c r="S10">
-        <v>0.3282887077997672</v>
+        <v>0.3396603396603396</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1494845360824742</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04639175257731959</v>
+        <v>0.04583333333333333</v>
       </c>
       <c r="K11">
-        <v>0.1649484536082474</v>
+        <v>0.1625</v>
       </c>
       <c r="L11">
-        <v>0.6288659793814433</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01030927835051546</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8181818181818182</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1136363636363636</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="K12">
-        <v>0.007575757575757576</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="L12">
-        <v>0.05303030303030303</v>
+        <v>0.05487804878048781</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007575757575757576</v>
+        <v>0.006097560975609756</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8275862068965517</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1724137931034483</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02941176470588235</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1588235294117647</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I15">
-        <v>0.06470588235294118</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="J15">
-        <v>0.3529411764705883</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="K15">
-        <v>0.04117647058823529</v>
+        <v>0.03902439024390244</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005882352941176471</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07647058823529412</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2705882352941176</v>
+        <v>0.2634146341463415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01470588235294118</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1985294117647059</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="I16">
-        <v>0.1029411764705882</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J16">
-        <v>0.3823529411764706</v>
+        <v>0.3782051282051282</v>
       </c>
       <c r="K16">
-        <v>0.08088235294117647</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02941176470588235</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06617647058823529</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1217948717948718</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008720930232558139</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1540697674418605</v>
+        <v>0.1482412060301508</v>
       </c>
       <c r="I17">
-        <v>0.1075581395348837</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="J17">
-        <v>0.436046511627907</v>
+        <v>0.4170854271356784</v>
       </c>
       <c r="K17">
-        <v>0.1220930232558139</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02034883720930233</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N17">
-        <v>0.002906976744186046</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O17">
-        <v>0.05523255813953488</v>
+        <v>0.06281407035175879</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09302325581395349</v>
+        <v>0.09547738693467336</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.024</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.248</v>
+        <v>0.2312925170068027</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J18">
-        <v>0.344</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.08843537414965986</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.024</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N18">
-        <v>0.008</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="O18">
-        <v>0.08</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.112</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01820388349514563</v>
+        <v>0.01684836471754212</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1978155339805825</v>
+        <v>0.2091179385530228</v>
       </c>
       <c r="I19">
-        <v>0.1152912621359223</v>
+        <v>0.1080277502477701</v>
       </c>
       <c r="J19">
-        <v>0.3847087378640777</v>
+        <v>0.3716551040634292</v>
       </c>
       <c r="K19">
-        <v>0.1092233009708738</v>
+        <v>0.1149653121902874</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01699029126213592</v>
+        <v>0.01684836471754212</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07281553398058252</v>
+        <v>0.07234886025768088</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08495145631067962</v>
+        <v>0.09018830525272548</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Virginia Tech_B.xlsx
+++ b/team_specific_matrix/Virginia Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1764705882352941</v>
+        <v>0.1762295081967213</v>
       </c>
       <c r="C2">
-        <v>0.583710407239819</v>
+        <v>0.5860655737704918</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01357466063348416</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1538461538461539</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07239819004524888</v>
+        <v>0.07377049180327869</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05185185185185185</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02222222222222222</v>
+        <v>0.02</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7555555555555555</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1703703703703704</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06976744186046512</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5581395348837209</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3720930232558139</v>
+        <v>0.3478260869565217</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05853658536585366</v>
+        <v>0.05627705627705628</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01463414634146342</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1219512195121951</v>
+        <v>0.1082251082251082</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01951219512195122</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1658536585365854</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R6">
-        <v>0.06829268292682927</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="S6">
-        <v>0.3512195121951219</v>
+        <v>0.341991341991342</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08762886597938144</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02061855670103093</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E7">
-        <v>0.005154639175257732</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="F7">
-        <v>0.06185567010309279</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1030927835051546</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05670103092783505</v>
+        <v>0.05392156862745098</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2010309278350516</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="R7">
-        <v>0.05670103092783505</v>
+        <v>0.06372549019607843</v>
       </c>
       <c r="S7">
-        <v>0.4072164948453608</v>
+        <v>0.4019607843137255</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07631578947368421</v>
+        <v>0.07709750566893424</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01842105263157895</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05</v>
+        <v>0.04988662131519275</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1289473684210526</v>
+        <v>0.1133786848072562</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02368421052631579</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1815789473684211</v>
+        <v>0.2018140589569161</v>
       </c>
       <c r="R8">
-        <v>0.1</v>
+        <v>0.09977324263038549</v>
       </c>
       <c r="S8">
-        <v>0.4210526315789473</v>
+        <v>0.4149659863945578</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07920792079207921</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0198019801980198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08415841584158416</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0891089108910891</v>
+        <v>0.08181818181818182</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0297029702970297</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1386138613861386</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="R9">
-        <v>0.09405940594059406</v>
+        <v>0.09545454545454546</v>
       </c>
       <c r="S9">
-        <v>0.4653465346534654</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1048951048951049</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02497502497502498</v>
+        <v>0.02482269503546099</v>
       </c>
       <c r="E10">
-        <v>0.000999000999000999</v>
+        <v>0.0008865248226950354</v>
       </c>
       <c r="F10">
-        <v>0.07292707292707293</v>
+        <v>0.07535460992907801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1358641358641359</v>
+        <v>0.1312056737588652</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02297702297702298</v>
+        <v>0.02216312056737589</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2307692307692308</v>
+        <v>0.2349290780141844</v>
       </c>
       <c r="R10">
-        <v>0.06693306693306693</v>
+        <v>0.07003546099290781</v>
       </c>
       <c r="S10">
-        <v>0.3396603396603396</v>
+        <v>0.3395390070921986</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1458333333333333</v>
+        <v>0.1383399209486166</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04583333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K11">
-        <v>0.1625</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="L11">
-        <v>0.6333333333333333</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0125</v>
+        <v>0.01185770750988142</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8170731707317073</v>
+        <v>0.807909604519774</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1158536585365854</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="K12">
-        <v>0.006097560975609756</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="L12">
-        <v>0.05487804878048781</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006097560975609756</v>
+        <v>0.005649717514124294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7878787878787878</v>
+        <v>0.725</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02439024390243903</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1707317073170732</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="I15">
-        <v>0.06829268292682927</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J15">
-        <v>0.3414634146341464</v>
+        <v>0.3463203463203463</v>
       </c>
       <c r="K15">
-        <v>0.03902439024390244</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004878048780487805</v>
+        <v>0.004329004329004329</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08780487804878048</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2634146341463415</v>
+        <v>0.2683982683982684</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01282051282051282</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2115384615384615</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="I16">
-        <v>0.1153846153846154</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="J16">
-        <v>0.3782051282051282</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="K16">
-        <v>0.07692307692307693</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02564102564102564</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0576923076923077</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1217948717948718</v>
+        <v>0.1220930232558139</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01256281407035176</v>
+        <v>0.01079913606911447</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1482412060301508</v>
+        <v>0.1555075593952484</v>
       </c>
       <c r="I17">
-        <v>0.1155778894472362</v>
+        <v>0.1101511879049676</v>
       </c>
       <c r="J17">
-        <v>0.4170854271356784</v>
+        <v>0.4341252699784017</v>
       </c>
       <c r="K17">
-        <v>0.1256281407035176</v>
+        <v>0.1187904967602592</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02010050251256281</v>
+        <v>0.01943844492440605</v>
       </c>
       <c r="N17">
-        <v>0.002512562814070352</v>
+        <v>0.002159827213822894</v>
       </c>
       <c r="O17">
-        <v>0.06281407035175879</v>
+        <v>0.06047516198704104</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09547738693467336</v>
+        <v>0.08855291576673865</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0272108843537415</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2312925170068027</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I18">
-        <v>0.08163265306122448</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="J18">
-        <v>0.3673469387755102</v>
+        <v>0.3647058823529412</v>
       </c>
       <c r="K18">
-        <v>0.08843537414965986</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02040816326530612</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="N18">
-        <v>0.006802721088435374</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="O18">
-        <v>0.07482993197278912</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1020408163265306</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01684836471754212</v>
+        <v>0.01610017889087657</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2091179385530228</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="I19">
-        <v>0.1080277502477701</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="J19">
-        <v>0.3716551040634292</v>
+        <v>0.3694096601073345</v>
       </c>
       <c r="K19">
-        <v>0.1149653121902874</v>
+        <v>0.1073345259391771</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01684836471754212</v>
+        <v>0.01967799642218247</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07234886025768088</v>
+        <v>0.07155635062611806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09018830525272548</v>
+        <v>0.09033989266547406</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Virginia Tech_B.xlsx
+++ b/team_specific_matrix/Virginia Tech_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1762295081967213</v>
+        <v>0.18</v>
       </c>
       <c r="C2">
-        <v>0.5860655737704918</v>
+        <v>0.58</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02049180327868852</v>
+        <v>0.024</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1434426229508197</v>
+        <v>0.144</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07377049180327869</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05333333333333334</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.756578947368421</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1644736842105263</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06521739130434782</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5869565217391305</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3478260869565217</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05627705627705628</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01298701298701299</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1082251082251082</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2121212121212121</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02164502164502164</v>
+        <v>0.02100840336134454</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1818181818181818</v>
+        <v>0.180672268907563</v>
       </c>
       <c r="R6">
-        <v>0.06493506493506493</v>
+        <v>0.06302521008403361</v>
       </c>
       <c r="S6">
-        <v>0.341991341991342</v>
+        <v>0.3445378151260504</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0196078431372549</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E7">
-        <v>0.004901960784313725</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F7">
-        <v>0.06862745098039216</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.107843137254902</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05392156862745098</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1911764705882353</v>
+        <v>0.1895734597156398</v>
       </c>
       <c r="R7">
-        <v>0.06372549019607843</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="S7">
-        <v>0.4019607843137255</v>
+        <v>0.4075829383886256</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07709750566893424</v>
+        <v>0.07709251101321586</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01587301587301587</v>
+        <v>0.01541850220264317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04988662131519275</v>
+        <v>0.05506607929515418</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1133786848072562</v>
+        <v>0.1123348017621145</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0272108843537415</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2018140589569161</v>
+        <v>0.1982378854625551</v>
       </c>
       <c r="R8">
-        <v>0.09977324263038549</v>
+        <v>0.1013215859030837</v>
       </c>
       <c r="S8">
-        <v>0.4149659863945578</v>
+        <v>0.4140969162995595</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08636363636363636</v>
+        <v>0.08583690987124463</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01818181818181818</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08636363636363636</v>
+        <v>0.0815450643776824</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08181818181818182</v>
+        <v>0.07725321888412018</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04090909090909091</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1409090909090909</v>
+        <v>0.1459227467811159</v>
       </c>
       <c r="R9">
-        <v>0.09545454545454546</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="S9">
-        <v>0.45</v>
+        <v>0.4506437768240343</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.101063829787234</v>
+        <v>0.09862778730703259</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02482269503546099</v>
+        <v>0.02658662092624357</v>
       </c>
       <c r="E10">
-        <v>0.0008865248226950354</v>
+        <v>0.0008576329331046312</v>
       </c>
       <c r="F10">
-        <v>0.07535460992907801</v>
+        <v>0.07375643224699828</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1312056737588652</v>
+        <v>0.1286449399656947</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02216312056737589</v>
+        <v>0.02144082332761578</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2349290780141844</v>
+        <v>0.2332761578044597</v>
       </c>
       <c r="R10">
-        <v>0.07003546099290781</v>
+        <v>0.07204116638078903</v>
       </c>
       <c r="S10">
-        <v>0.3395390070921986</v>
+        <v>0.3447684391080618</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1383399209486166</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04347826086956522</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="K11">
-        <v>0.1541501976284585</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="L11">
-        <v>0.6521739130434783</v>
+        <v>0.6390977443609023</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01185770750988142</v>
+        <v>0.0112781954887218</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.807909604519774</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1299435028248588</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="K12">
-        <v>0.005649717514124294</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="L12">
-        <v>0.05084745762711865</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005649717514124294</v>
+        <v>0.005494505494505495</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.725</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02164502164502164</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1688311688311688</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="I15">
-        <v>0.06493506493506493</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="J15">
-        <v>0.3463203463203463</v>
+        <v>0.3544303797468354</v>
       </c>
       <c r="K15">
-        <v>0.04329004329004329</v>
+        <v>0.04219409282700422</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004329004329004329</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08225108225108226</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2683982683982684</v>
+        <v>0.2658227848101266</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01162790697674419</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2151162790697674</v>
+        <v>0.2114285714285714</v>
       </c>
       <c r="I16">
-        <v>0.1162790697674419</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J16">
-        <v>0.3604651162790697</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="K16">
-        <v>0.08139534883720931</v>
+        <v>0.08</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02325581395348837</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06976744186046512</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1220930232558139</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01079913606911447</v>
+        <v>0.01050420168067227</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1555075593952484</v>
+        <v>0.1554621848739496</v>
       </c>
       <c r="I17">
-        <v>0.1101511879049676</v>
+        <v>0.1113445378151261</v>
       </c>
       <c r="J17">
-        <v>0.4341252699784017</v>
+        <v>0.4327731092436975</v>
       </c>
       <c r="K17">
-        <v>0.1187904967602592</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01943844492440605</v>
+        <v>0.01890756302521008</v>
       </c>
       <c r="N17">
-        <v>0.002159827213822894</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="O17">
-        <v>0.06047516198704104</v>
+        <v>0.06092436974789916</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08855291576673865</v>
+        <v>0.09033613445378151</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04117647058823529</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2352941176470588</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="I18">
-        <v>0.08235294117647059</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="J18">
-        <v>0.3647058823529412</v>
+        <v>0.3539325842696629</v>
       </c>
       <c r="K18">
-        <v>0.07647058823529412</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02352941176470588</v>
+        <v>0.02808988764044944</v>
       </c>
       <c r="N18">
-        <v>0.005882352941176471</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="O18">
-        <v>0.07058823529411765</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.101123595505618</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01610017889087657</v>
+        <v>0.01545064377682403</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2209302325581395</v>
+        <v>0.2206008583690987</v>
       </c>
       <c r="I19">
-        <v>0.1046511627906977</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="J19">
-        <v>0.3694096601073345</v>
+        <v>0.367381974248927</v>
       </c>
       <c r="K19">
-        <v>0.1073345259391771</v>
+        <v>0.1098712446351931</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01967799642218247</v>
+        <v>0.01888412017167382</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07155635062611806</v>
+        <v>0.0703862660944206</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09033989266547406</v>
+        <v>0.09012875536480687</v>
       </c>
     </row>
   </sheetData>
